--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION PROYECTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Nomenclatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -321,6 +321,21 @@
   </si>
   <si>
     <t>Formato servicio basculas</t>
+  </si>
+  <si>
+    <t>Informe de refacciones</t>
+  </si>
+  <si>
+    <t>Informe de estado de basculas de carnes</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>Armando C.</t>
+  </si>
+  <si>
+    <t>Israel G.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -471,6 +486,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,36 +1203,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1226,353 +1242,353 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1582,110 +1598,110 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -1772,36 +1788,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1811,317 +1827,317 @@
       <c r="B7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2131,108 +2147,108 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -2318,36 +2334,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2357,313 +2373,313 @@
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2673,108 +2689,108 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -2846,50 +2862,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2899,325 +2916,353 @@
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3227,108 +3272,108 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -3389,9 +3434,10 @@
     <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B8:B37" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Israel G.</t>
+  </si>
+  <si>
+    <t>Armando C. / Israel G.</t>
   </si>
 </sst>
 </file>
@@ -488,6 +491,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,35 +529,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,36 +1206,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1242,353 +1245,353 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1598,133 +1601,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1741,25 +1743,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1788,36 +1791,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1827,317 +1830,317 @@
       <c r="B7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2147,153 +2150,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2307,6 +2268,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2334,36 +2337,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2373,313 +2376,313 @@
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2689,153 +2692,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2849,6 +2810,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2863,7 +2866,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,36 +2880,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2916,13 +2919,13 @@
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>88</v>
       </c>
@@ -2931,13 +2934,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>89</v>
       </c>
@@ -2946,13 +2949,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>89</v>
       </c>
@@ -2961,13 +2964,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>89</v>
       </c>
@@ -2976,13 +2979,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>89</v>
       </c>
@@ -2991,13 +2994,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>90</v>
       </c>
@@ -3006,25 +3009,28 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>89</v>
       </c>
@@ -3033,13 +3039,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>89</v>
       </c>
@@ -3048,221 +3054,221 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3272,111 +3278,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3390,48 +3438,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Transferencia con costo CERO</t>
   </si>
   <si>
-    <t>Regresar boletines de remisión y entrada factura nuevamente desdepues del ingreso al sistema</t>
-  </si>
-  <si>
     <t>Implementación de Domain Controller en CCFN</t>
   </si>
   <si>
@@ -339,6 +336,27 @@
   </si>
   <si>
     <t>Armando C. / Israel G.</t>
+  </si>
+  <si>
+    <t>Joaquin/Rafael</t>
+  </si>
+  <si>
+    <t>Regresar boletines de remisión y entrada factura nuevamente despues del ingreso al sistema</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Automatizacion de sistemas de pedidos</t>
   </si>
 </sst>
 </file>
@@ -491,30 +509,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,11 +523,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1192,50 +1210,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1245,353 +1264,388 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1601,132 +1655,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1743,26 +1798,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1791,36 +1845,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1828,319 +1882,319 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2150,111 +2204,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2268,48 +2364,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2337,36 +2391,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2374,315 +2428,315 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2692,111 +2746,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2810,48 +2906,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2865,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,36 +2934,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2917,358 +2971,358 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3278,111 +3332,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3396,48 +3492,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -356,7 +356,7 @@
     <t>Erika</t>
   </si>
   <si>
-    <t>Automatizacion de sistemas de pedidos</t>
+    <t>Automatizacion de sistema de pedidos</t>
   </si>
 </sst>
 </file>
@@ -509,6 +509,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,35 +547,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,7 +1211,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C15" sqref="C15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,36 +1225,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1279,13 +1279,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1294,13 +1294,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1309,13 +1309,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1324,13 +1324,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1339,13 +1339,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1354,13 +1354,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1369,37 +1369,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1408,97 +1408,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1507,25 +1507,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1534,25 +1534,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1561,91 +1561,91 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1655,133 +1655,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1798,25 +1797,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1845,36 +1845,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1884,317 +1884,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2204,153 +2204,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2364,6 +2322,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2391,36 +2391,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2430,313 +2430,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2746,153 +2746,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2906,6 +2864,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2934,36 +2934,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2973,13 +2973,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2988,13 +2988,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3003,13 +3003,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3018,13 +3018,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3033,13 +3033,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3048,13 +3048,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3063,13 +3063,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3078,13 +3078,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3093,13 +3093,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3108,221 +3108,221 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3332,111 +3332,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3450,48 +3492,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Automatizacion de sistema de pedidos</t>
+  </si>
+  <si>
+    <t>Restriccion cargas de datos en PDV's</t>
   </si>
 </sst>
 </file>
@@ -509,30 +512,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,11 +526,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,36 +1228,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1264,13 +1267,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1279,13 +1282,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1294,13 +1297,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1309,13 +1312,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1324,13 +1327,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1339,13 +1342,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1354,13 +1357,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1369,37 +1372,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1408,97 +1411,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1507,25 +1510,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1534,25 +1537,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1561,91 +1564,96 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1655,132 +1663,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1797,26 +1806,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1845,36 +1853,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1884,317 +1892,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2204,111 +2212,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2322,48 +2372,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2391,36 +2399,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2430,313 +2438,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2746,111 +2754,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2864,48 +2914,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2934,36 +2942,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2973,13 +2981,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2988,13 +2996,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3003,13 +3011,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3018,13 +3026,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3033,13 +3041,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3048,13 +3056,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3063,13 +3071,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3078,13 +3086,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3093,13 +3101,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3108,221 +3116,221 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3332,111 +3340,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3450,48 +3500,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="101">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Restriccion cargas de datos en PDV's</t>
+  </si>
+  <si>
+    <t>Formato de solicitud de material</t>
+  </si>
+  <si>
+    <t>Formato comparativo de cotizaciones</t>
   </si>
 </sst>
 </file>
@@ -512,6 +518,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,35 +556,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1213,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1228,36 +1234,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1267,13 +1273,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1282,13 +1288,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1297,13 +1303,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1312,13 +1318,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1327,13 +1333,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1342,13 +1348,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1357,13 +1363,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1372,37 +1378,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1411,97 +1417,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1510,25 +1516,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1537,25 +1543,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1564,13 +1570,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1579,81 +1585,81 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1663,133 +1669,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1806,25 +1811,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1853,36 +1859,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1892,317 +1898,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2212,153 +2218,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2372,6 +2336,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2399,36 +2405,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2438,313 +2444,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2754,153 +2760,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2914,6 +2878,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2927,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,36 +2948,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2981,13 +2987,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2996,13 +3002,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3011,13 +3017,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3026,13 +3032,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3041,13 +3047,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3056,13 +3062,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3071,13 +3077,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3086,13 +3092,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3101,13 +3107,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3116,221 +3122,225 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3340,111 +3350,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3458,48 +3510,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -518,30 +518,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,11 +532,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,36 +1234,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1273,13 +1273,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1288,13 +1288,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1303,13 +1303,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1318,13 +1318,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1333,13 +1333,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1348,13 +1348,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1363,13 +1363,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1378,37 +1378,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1417,97 +1417,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1516,25 +1516,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1543,25 +1543,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1570,13 +1570,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1585,81 +1585,81 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1669,132 +1669,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1811,26 +1812,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1859,36 +1859,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1898,317 +1898,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2218,111 +2218,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2336,48 +2378,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2405,36 +2405,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2444,313 +2444,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2760,111 +2760,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2878,48 +2920,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2948,36 +2948,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2987,13 +2987,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3002,13 +3002,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3017,13 +3017,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3032,13 +3032,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3047,13 +3047,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3062,13 +3062,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3077,13 +3077,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3092,13 +3092,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3107,13 +3107,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3122,225 +3122,225 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3350,111 +3350,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3468,48 +3510,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Formato comparativo de cotizaciones</t>
+  </si>
+  <si>
+    <t>Cancelaciones facturas de salida de clientes (SAT vs Protheus) y Match facturas de proveedores (SAT vs protheus)</t>
   </si>
 </sst>
 </file>
@@ -518,6 +521,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -532,35 +559,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,36 +1237,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1273,13 +1276,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1288,13 +1291,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1303,13 +1306,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1318,13 +1321,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1333,13 +1336,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1348,13 +1351,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1363,13 +1366,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1378,37 +1381,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1417,97 +1420,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1516,25 +1519,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1543,25 +1546,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1570,13 +1573,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1585,81 +1588,86 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1669,133 +1677,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1812,25 +1819,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1859,36 +1867,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1898,317 +1906,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2218,153 +2226,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2378,6 +2344,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2405,36 +2413,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2444,313 +2452,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2760,153 +2768,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2920,6 +2886,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2933,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2948,36 +2956,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2987,13 +2995,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3002,13 +3010,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3017,13 +3025,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3032,13 +3040,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3047,13 +3055,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3062,13 +3070,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3077,13 +3085,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3092,13 +3100,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3107,13 +3115,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3122,225 +3130,225 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3350,111 +3358,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3468,48 +3518,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Cancelaciones facturas de salida de clientes (SAT vs Protheus) y Match facturas de proveedores (SAT vs protheus)</t>
+  </si>
+  <si>
+    <t>Diagnostico del equipo</t>
   </si>
 </sst>
 </file>
@@ -521,30 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,11 +538,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1222,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -1237,36 +1240,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1276,13 +1279,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1291,13 +1294,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1306,13 +1309,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1321,13 +1324,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1336,13 +1339,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1351,13 +1354,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1366,13 +1369,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1381,37 +1384,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1420,97 +1423,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1519,25 +1522,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1546,25 +1549,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1573,13 +1576,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1588,13 +1591,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1603,71 +1606,71 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1677,132 +1680,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1819,26 +1823,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1867,36 +1870,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1906,317 +1909,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2226,111 +2229,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2344,48 +2389,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2413,36 +2416,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2452,313 +2455,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2768,111 +2771,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2886,48 +2931,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2941,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,36 +2959,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2995,13 +2998,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3010,13 +3013,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3025,13 +3028,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3040,13 +3043,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3055,13 +3058,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3070,13 +3073,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3085,13 +3088,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3100,13 +3103,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3115,13 +3118,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3130,225 +3133,227 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3358,111 +3363,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3476,48 +3523,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Diagnostico del equipo</t>
+  </si>
+  <si>
+    <t>Transferencias deposito virtual Pachuco</t>
   </si>
 </sst>
 </file>
@@ -524,6 +527,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,35 +565,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,36 +1243,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1279,13 +1282,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1294,13 +1297,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1309,13 +1312,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1324,13 +1327,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1339,13 +1342,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1354,13 +1357,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1369,13 +1372,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1384,37 +1387,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1423,97 +1426,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1522,25 +1525,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1549,25 +1552,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1576,13 +1579,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1591,13 +1594,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1606,71 +1609,76 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1680,133 +1688,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1823,25 +1830,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1870,36 +1878,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1909,317 +1917,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2229,153 +2237,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2389,6 +2355,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2416,36 +2424,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2455,313 +2463,313 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2771,153 +2779,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2931,6 +2897,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2944,7 +2952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
@@ -2959,36 +2967,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2998,13 +3006,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3013,13 +3021,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3028,13 +3036,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3043,13 +3051,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3058,13 +3066,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3073,13 +3081,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3088,13 +3096,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3103,13 +3111,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3118,13 +3126,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3133,227 +3141,227 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3363,111 +3371,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3481,48 +3531,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="105">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Transferencias deposito virtual Pachuco</t>
+  </si>
+  <si>
+    <t>Manual de politicas de Tecnologia de la Informacion de la DGT-CCFN</t>
   </si>
 </sst>
 </file>
@@ -527,30 +530,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,11 +544,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -1243,36 +1246,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1282,13 +1285,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1297,13 +1300,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1312,13 +1315,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1327,13 +1330,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1342,13 +1345,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1357,13 +1360,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1372,13 +1375,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1387,37 +1390,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1426,97 +1429,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1525,25 +1528,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1552,25 +1555,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1579,13 +1582,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1594,13 +1597,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1609,13 +1612,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1624,61 +1627,61 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1688,132 +1691,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1830,26 +1834,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1878,36 +1881,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1917,317 +1920,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2237,111 +2240,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2355,48 +2400,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2410,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,36 +2427,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2463,313 +2466,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2779,111 +2784,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2897,48 +2944,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2967,36 +2972,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3006,13 +3011,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3021,13 +3026,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3036,13 +3041,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3051,13 +3056,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3066,13 +3071,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3081,13 +3086,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3096,13 +3101,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3111,13 +3116,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3126,13 +3131,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3141,227 +3146,227 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3371,111 +3376,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3489,48 +3536,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Manual de politicas de Tecnologia de la Informacion de la DGT-CCFN</t>
+  </si>
+  <si>
+    <t>Orden de compra</t>
   </si>
 </sst>
 </file>
@@ -530,6 +533,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -544,35 +571,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,36 +1249,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1285,13 +1288,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1300,13 +1303,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1315,13 +1318,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1330,13 +1333,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1345,13 +1348,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1360,13 +1363,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1375,13 +1378,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1390,37 +1393,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1429,97 +1432,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1528,25 +1531,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1555,25 +1558,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1582,13 +1585,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1597,13 +1600,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1612,13 +1615,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1627,61 +1630,61 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1691,133 +1694,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1834,25 +1836,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1881,36 +1884,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1920,317 +1923,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2240,153 +2243,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2400,6 +2361,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2413,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2427,36 +2430,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2466,315 +2469,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2784,153 +2787,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2944,6 +2905,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2957,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,36 +2975,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3011,13 +3014,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3026,13 +3029,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3041,13 +3044,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3056,13 +3059,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3071,13 +3074,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3086,13 +3089,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3101,13 +3104,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3116,13 +3119,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3131,13 +3134,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3146,227 +3149,229 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3376,111 +3381,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3494,48 +3541,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="107">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Orden de compra</t>
+  </si>
+  <si>
+    <t>Manual de usuario Descarga de facturas</t>
   </si>
 </sst>
 </file>
@@ -533,30 +536,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -571,11 +550,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,36 +1252,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1288,13 +1291,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1303,13 +1306,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1318,13 +1321,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1333,13 +1336,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1348,13 +1351,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1363,13 +1366,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1378,13 +1381,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1393,37 +1396,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1432,97 +1435,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1531,25 +1534,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1558,25 +1561,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1585,13 +1588,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1600,13 +1603,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1615,13 +1618,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1630,61 +1633,61 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1694,132 +1697,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1836,26 +1840,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1870,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
@@ -1884,36 +1887,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1923,317 +1926,319 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2243,111 +2248,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2361,48 +2408,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2430,36 +2435,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2469,315 +2474,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2787,111 +2792,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2905,48 +2952,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2960,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -2975,36 +2980,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3014,13 +3019,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3029,13 +3034,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3044,13 +3049,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3059,13 +3064,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3074,13 +3079,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3089,13 +3094,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3104,13 +3109,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3119,13 +3124,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3134,13 +3139,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3149,229 +3154,229 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3381,111 +3386,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3499,48 +3546,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="108">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -383,7 +383,10 @@
     <t>Orden de compra</t>
   </si>
   <si>
-    <t>Manual de usuario Descarga de facturas</t>
+    <t>Manual de usuario Descarga de facturas para cliente</t>
+  </si>
+  <si>
+    <t>manual de usuario Descarga de facturas para administrador</t>
   </si>
 </sst>
 </file>
@@ -536,6 +539,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -550,35 +577,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,36 +1255,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1291,13 +1294,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1306,13 +1309,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1321,13 +1324,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1336,13 +1339,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1351,13 +1354,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1366,13 +1369,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1381,13 +1384,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1396,37 +1399,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1435,97 +1438,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1534,25 +1537,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1561,25 +1564,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1588,13 +1591,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1603,13 +1606,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1618,13 +1621,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1633,61 +1636,61 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1697,133 +1700,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1840,25 +1842,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1874,7 +1877,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,36 +1890,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1926,319 +1929,321 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2248,153 +2253,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2408,6 +2371,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2435,36 +2440,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2474,315 +2479,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2792,153 +2797,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2952,6 +2915,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2980,36 +2985,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3019,13 +3024,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3034,13 +3039,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3049,13 +3054,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3064,13 +3069,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3079,13 +3084,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3094,13 +3099,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3109,13 +3114,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3124,13 +3129,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3139,13 +3144,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3154,229 +3159,229 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3386,111 +3391,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3504,48 +3551,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>manual de usuario Descarga de facturas para administrador</t>
+  </si>
+  <si>
+    <t>Formato Alta/Baja de Usuarios</t>
   </si>
 </sst>
 </file>
@@ -539,30 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,11 +556,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1255,36 +1258,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1294,13 +1297,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1309,13 +1312,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1324,13 +1327,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1339,13 +1342,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1354,13 +1357,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1369,13 +1372,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1384,13 +1387,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1399,37 +1402,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1438,97 +1441,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1537,25 +1540,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1564,25 +1567,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1591,13 +1594,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1606,13 +1609,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1621,13 +1624,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1636,61 +1639,61 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1700,132 +1703,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1842,26 +1846,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1876,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
@@ -1890,36 +1893,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1929,321 +1932,321 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2253,111 +2256,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2371,48 +2416,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2440,36 +2443,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2479,315 +2482,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2797,111 +2800,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2915,48 +2960,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2970,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,36 +2988,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3024,13 +3027,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3039,13 +3042,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3054,13 +3057,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3069,13 +3072,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3084,13 +3087,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3099,13 +3102,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3114,13 +3117,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3129,13 +3132,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3144,13 +3147,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3159,229 +3162,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3391,111 +3396,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3509,48 +3556,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -383,13 +383,13 @@
     <t>Orden de compra</t>
   </si>
   <si>
-    <t>Manual de usuario Descarga de facturas para cliente</t>
-  </si>
-  <si>
-    <t>manual de usuario Descarga de facturas para administrador</t>
-  </si>
-  <si>
     <t>Formato Alta/Baja de Usuarios</t>
+  </si>
+  <si>
+    <t>Control de ventas de platillos en cocina</t>
+  </si>
+  <si>
+    <t>CCFN Descarga de Facturas</t>
   </si>
 </sst>
 </file>
@@ -542,6 +542,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,35 +580,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,36 +1258,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1297,13 +1297,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1312,13 +1312,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1327,13 +1327,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1357,13 +1357,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1372,13 +1372,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1387,13 +1387,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1402,37 +1402,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1441,97 +1441,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1540,25 +1540,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1567,25 +1567,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1594,13 +1594,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1609,13 +1609,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1624,13 +1624,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1639,61 +1639,68 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1703,133 +1710,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1846,25 +1852,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1880,7 +1887,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G11"/>
+      <selection activeCell="C15" sqref="C15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,36 +1900,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1932,321 +1939,317 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2256,153 +2259,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2416,6 +2377,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2443,36 +2446,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2482,315 +2485,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2800,153 +2803,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2960,6 +2921,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2973,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
@@ -2988,36 +2991,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3027,13 +3030,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3042,13 +3045,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3057,13 +3060,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3072,13 +3075,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3087,13 +3090,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3102,13 +3105,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3117,13 +3120,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3132,13 +3135,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3147,13 +3150,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3162,231 +3165,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3396,111 +3399,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3514,48 +3559,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>CCFN Descarga de Facturas</t>
+  </si>
+  <si>
+    <t>CCFN Descarga de facturas</t>
+  </si>
+  <si>
+    <t>CCFN Descarga de facturas Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberacion de IP </t>
   </si>
 </sst>
 </file>
@@ -542,30 +551,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,11 +565,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1243,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,36 +1267,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1297,13 +1306,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1312,13 +1321,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1327,13 +1336,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1342,13 +1351,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1357,13 +1366,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1372,13 +1381,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1387,13 +1396,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1402,37 +1411,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1441,97 +1450,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1540,25 +1549,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1567,25 +1576,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1594,13 +1603,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1609,13 +1618,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1624,13 +1633,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1639,13 +1648,13 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -1654,53 +1663,53 @@
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1710,132 +1719,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1852,26 +1862,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1887,7 +1896,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+      <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,36 +1909,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1939,317 +1948,323 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2259,111 +2274,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2377,48 +2434,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2446,36 +2461,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2485,315 +2500,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2803,111 +2818,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2921,48 +2978,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2991,36 +3006,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3030,13 +3045,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3045,13 +3060,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3060,13 +3075,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3075,13 +3090,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3090,13 +3105,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3105,13 +3120,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3120,13 +3135,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3135,13 +3150,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3150,13 +3165,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3165,231 +3180,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3399,111 +3414,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3517,48 +3574,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">Liberacion de IP </t>
+  </si>
+  <si>
+    <t>Cambio de Moneda</t>
   </si>
 </sst>
 </file>
@@ -551,6 +554,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,35 +592,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1267,36 +1270,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1306,13 +1309,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1321,13 +1324,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1336,13 +1339,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1351,13 +1354,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1366,13 +1369,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1381,13 +1384,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1396,13 +1399,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1411,37 +1414,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1450,97 +1453,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1549,25 +1552,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1576,25 +1579,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1603,13 +1606,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1618,13 +1621,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1633,13 +1636,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1648,13 +1651,13 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -1663,53 +1666,53 @@
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1719,133 +1722,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1862,25 +1864,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,36 +1912,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1948,323 +1951,325 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2274,153 +2279,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2434,6 +2397,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2461,36 +2466,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2500,315 +2505,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2818,153 +2823,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2978,6 +2941,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3006,36 +3011,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3045,13 +3050,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3060,13 +3065,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3075,13 +3080,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3090,13 +3095,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3105,13 +3110,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3120,13 +3125,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3135,13 +3140,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3150,13 +3155,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3165,13 +3170,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3180,231 +3185,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3414,111 +3419,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3532,48 +3579,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>Cambio de Moneda</t>
+  </si>
+  <si>
+    <t>Transferencia salida</t>
+  </si>
+  <si>
+    <t>Transferencia entrada</t>
   </si>
 </sst>
 </file>
@@ -554,30 +560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,11 +574,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1270,36 +1276,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1309,13 +1315,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1324,13 +1330,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1339,13 +1345,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1354,13 +1360,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1369,13 +1375,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1384,13 +1390,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1399,13 +1405,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1414,37 +1420,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1453,97 +1459,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1552,25 +1558,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1579,25 +1585,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1606,13 +1612,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1621,13 +1627,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1636,13 +1642,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1651,13 +1657,13 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -1666,53 +1672,53 @@
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1722,132 +1728,133 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1864,26 +1871,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1899,7 +1905,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+      <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,36 +1918,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1951,325 +1957,329 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2279,111 +2289,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2397,48 +2449,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2466,36 +2476,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2505,315 +2515,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2823,111 +2833,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2941,48 +2993,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3011,36 +3021,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3050,13 +3060,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3065,13 +3075,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3080,13 +3090,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3105,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3110,13 +3120,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3125,13 +3135,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3140,13 +3150,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3155,13 +3165,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3170,13 +3180,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3185,231 +3195,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3419,111 +3429,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3537,48 +3589,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="116">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Transferencia entrada</t>
+  </si>
+  <si>
+    <t>Guia para impresion de planilla.</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,35 +601,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,36 +1279,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1315,13 +1318,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1330,13 +1333,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1345,13 +1348,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1360,13 +1363,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1375,13 +1378,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1390,13 +1393,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1405,13 +1408,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1420,37 +1423,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1459,97 +1462,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1558,25 +1561,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1585,25 +1588,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1612,13 +1615,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1627,13 +1630,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1642,13 +1645,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1657,13 +1660,13 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -1672,53 +1675,53 @@
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1728,133 +1731,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1871,25 +1873,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1905,7 +1908,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,36 +1921,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1957,329 +1960,331 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2289,153 +2294,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2449,6 +2412,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2476,36 +2481,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2515,315 +2520,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2833,153 +2838,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2993,6 +2956,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3021,36 +3026,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3060,13 +3065,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3075,13 +3080,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3090,13 +3095,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3105,13 +3110,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3120,13 +3125,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3135,13 +3140,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3150,13 +3155,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3165,13 +3170,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3180,13 +3185,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3195,231 +3200,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3429,111 +3434,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -3547,48 +3594,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>Guia para impresion de planilla.</t>
+  </si>
+  <si>
+    <t>Aldo</t>
+  </si>
+  <si>
+    <t>Comisiones por producto a vendedores.</t>
+  </si>
+  <si>
+    <t>Rafael.</t>
   </si>
 </sst>
 </file>
@@ -563,30 +572,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,11 +586,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,36 +1288,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1318,13 +1327,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1333,13 +1342,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1348,13 +1357,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1363,13 +1372,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1378,13 +1387,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1393,13 +1402,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1408,13 +1417,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1423,37 +1432,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1462,97 +1471,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1561,25 +1570,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1588,25 +1597,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1615,13 +1624,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1630,13 +1639,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1645,13 +1654,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1660,203 +1669,212 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="G44" s="24"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1873,26 +1891,25 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1907,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,36 +1938,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1960,331 +1977,331 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2294,111 +2311,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2412,48 +2471,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2481,36 +2498,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2520,315 +2537,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2838,111 +2855,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2956,48 +3015,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3026,36 +3043,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3065,13 +3082,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3080,13 +3097,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3112,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3110,13 +3127,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3125,13 +3142,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3140,13 +3157,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3155,13 +3172,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3170,13 +3187,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3185,13 +3202,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3200,231 +3217,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3434,111 +3451,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3552,48 +3611,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/099. SECUENCIA DE DOCUMENTACION.xlsx
+++ b/099. SECUENCIA DE DOCUMENTACION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-PROYECTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
   <si>
     <t>SECUENCIA DE PROYECTOS</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>Rafael.</t>
+  </si>
+  <si>
+    <t>Manual para respaldar BD en sistema de nomina TRESS</t>
   </si>
 </sst>
 </file>
@@ -572,6 +575,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,35 +613,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1273,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1288,36 +1291,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1327,13 +1330,13 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -1342,13 +1345,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>91</v>
       </c>
@@ -1357,13 +1360,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>94</v>
       </c>
@@ -1372,13 +1375,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>93</v>
       </c>
@@ -1387,13 +1390,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1402,13 +1405,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>91</v>
       </c>
@@ -1417,13 +1420,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1432,37 +1435,37 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" t="s">
         <v>95</v>
       </c>
@@ -1471,97 +1474,97 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="s">
         <v>96</v>
       </c>
@@ -1570,25 +1573,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" t="s">
         <v>93</v>
       </c>
@@ -1597,25 +1600,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" t="s">
         <v>94</v>
       </c>
@@ -1624,13 +1627,13 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>94</v>
       </c>
@@ -1639,13 +1642,13 @@
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>93</v>
       </c>
@@ -1654,13 +1657,13 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" t="s">
         <v>94</v>
       </c>
@@ -1669,13 +1672,13 @@
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -1684,13 +1687,13 @@
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
       <c r="H33" t="s">
         <v>116</v>
       </c>
@@ -1699,13 +1702,13 @@
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
       <c r="H34" t="s">
         <v>118</v>
       </c>
@@ -1714,31 +1717,31 @@
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -1748,133 +1751,132 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1891,25 +1893,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1924,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,36 +1941,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1977,331 +1980,333 @@
       <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2311,153 +2316,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -2471,6 +2434,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2498,36 +2503,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2537,315 +2542,315 @@
       <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -2855,153 +2860,111 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="B43:C43"/>
@@ -3015,6 +2978,48 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3043,36 +3048,36 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3082,13 +3087,13 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
@@ -3097,13 +3102,13 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3112,13 +3117,13 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>88</v>
       </c>
@@ -3127,13 +3132,13 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" t="s">
         <v>88</v>
       </c>
@@ -3142,13 +3147,13 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>88</v>
       </c>
@@ -3157,13 +3162,13 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" t="s">
         <v>89</v>
       </c>
@@ -3172,13 +3177,13 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" t="s">
         <v>90</v>
       </c>
@@ -3187,13 +3192,13 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -3202,13 +3207,13 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -3217,231 +3222,231 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
@@ -3451,111 +3456,153 @@
       <c r="G38" s="8"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="